--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\畢專\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\PHP\www\projectntcu\listeningtrain_platform\sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="226">
   <si>
     <t>cook</t>
   </si>
@@ -761,6 +761,22 @@
   </si>
   <si>
     <t>&gt;7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要頻率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波形分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頻率分類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,23 +1110,36 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
-    <col min="3" max="3" width="41.75" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1141,7 +1170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1158,7 +1187,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1175,7 +1204,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1189,7 +1218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1203,7 +1232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1220,7 +1249,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1234,7 +1263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1248,7 +1277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1262,7 +1291,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1276,7 +1305,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1293,7 +1322,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1310,7 +1339,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1327,7 +1356,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -1341,7 +1370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1358,7 +1387,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1375,7 +1404,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -1392,12 +1421,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1460,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1494,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1511,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1516,12 +1545,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +1567,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1584,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1601,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1618,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1649,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1654,12 +1683,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1705,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1722,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1739,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1756,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +1773,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1761,7 +1790,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1807,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1795,7 +1824,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1812,7 +1841,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1829,7 +1858,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1875,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1880,7 +1909,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1897,7 +1926,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1943,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1931,7 +1960,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +1977,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1965,7 +1994,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1982,7 +2011,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +2028,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2045,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2033,12 +2062,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2055,7 +2084,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -2072,7 +2101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -2086,12 +2115,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -2108,7 +2137,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -2125,7 +2154,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>43</v>
       </c>
@@ -2142,7 +2171,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -2159,7 +2188,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2176,7 +2205,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -2193,7 +2222,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -2210,7 +2239,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -2227,7 +2256,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -2244,7 +2273,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -2261,7 +2290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -2278,7 +2307,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -2295,7 +2324,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -2312,7 +2341,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -2329,7 +2358,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -2346,7 +2375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -2363,7 +2392,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -2380,7 +2409,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -2397,7 +2426,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -2414,12 +2443,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -2436,7 +2465,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -2453,7 +2482,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>62</v>
       </c>
@@ -2470,7 +2499,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>62</v>
       </c>
@@ -2487,7 +2516,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2533,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>62</v>
       </c>
@@ -2521,12 +2550,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2543,7 +2572,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2557,7 +2586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2571,7 +2600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2585,7 +2614,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2602,7 +2631,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2616,7 +2645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2633,7 +2662,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -2647,7 +2676,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -2661,7 +2690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -2675,7 +2704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -2692,7 +2721,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -2709,7 +2738,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -2726,7 +2755,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -2740,7 +2769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -2757,7 +2786,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -2771,7 +2800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -2788,7 +2817,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -2802,12 +2831,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -2824,7 +2853,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2841,7 +2870,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2855,7 +2884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2872,7 +2901,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2889,7 +2918,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2906,7 +2935,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -2923,7 +2952,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -2940,7 +2969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -2957,7 +2986,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -2971,7 +3000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -2988,7 +3017,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>114</v>
       </c>
@@ -3005,7 +3034,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -3022,7 +3051,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -3039,7 +3068,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -3053,7 +3082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>114</v>
       </c>
@@ -3067,7 +3096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>114</v>
       </c>
@@ -3084,7 +3113,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -3098,7 +3127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>114</v>
       </c>
@@ -3115,7 +3144,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>114</v>
       </c>
@@ -3132,7 +3161,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>114</v>
       </c>
@@ -3149,7 +3178,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>114</v>
       </c>
@@ -3163,7 +3192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>114</v>
       </c>
@@ -3177,7 +3206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>114</v>
       </c>
@@ -3194,7 +3223,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -3211,7 +3240,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>114</v>
       </c>
@@ -3228,7 +3257,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>114</v>
       </c>
@@ -3242,7 +3271,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>114</v>
       </c>
@@ -3256,7 +3285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>114</v>
       </c>
@@ -3273,7 +3302,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>114</v>
       </c>
@@ -3290,7 +3319,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>114</v>
       </c>
@@ -3307,12 +3336,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -3329,7 +3358,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3346,7 +3375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>146</v>
       </c>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\畢專\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\PHP\www\projectntcu\listeningtrain_platform\sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1189,19 +1189,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F76" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
-    <col min="3" max="3" width="41.75" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="31.375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>68</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>68</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>68</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>68</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>62</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>68</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>68</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>114</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>68</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>96</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>62</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>68</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -3496,52 +3497,52 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>146</v>
       </c>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="248">
   <si>
     <t>cook</t>
   </si>
@@ -857,6 +857,14 @@
   </si>
   <si>
     <t>1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,17 +1197,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F76" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1434,7 +1442,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
         <v>205</v>
@@ -2683,7 +2691,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="249">
   <si>
     <t>cook</t>
   </si>
@@ -865,6 +865,10 @@
   </si>
   <si>
     <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1658,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
         <v>127</v>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="250">
   <si>
     <t>cook</t>
   </si>
@@ -470,9 +470,6 @@
     <t>airplane</t>
   </si>
   <si>
-    <t>militare battle</t>
-  </si>
-  <si>
     <t>開槍</t>
   </si>
   <si>
@@ -852,23 +849,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;100、100~1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000~2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低頻高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軍事</t>
+    <t>military battle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1233,7 @@
         <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1245,7 +1250,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1262,7 +1267,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1279,7 +1284,7 @@
         <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1296,7 +1301,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,7 +1318,7 @@
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1330,7 +1335,7 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1347,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1364,7 +1369,7 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1381,7 +1386,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,7 +1403,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1415,7 +1420,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,7 +1437,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,10 +1451,10 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,7 +1471,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1483,7 +1488,7 @@
         <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1500,7 +1505,7 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1517,7 +1522,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1534,7 +1539,7 @@
         <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1542,7 +1547,7 @@
         <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="C20">
         <v>46</v>
@@ -1551,7 +1556,7 @@
         <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1568,7 +1573,7 @@
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1585,7 +1590,7 @@
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1602,7 +1607,7 @@
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,13 +1618,13 @@
         <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1630,13 +1635,13 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,30 +1652,30 @@
         <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
         <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="E27" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,13 +1686,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1704,7 +1709,7 @@
         <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1721,7 +1726,7 @@
         <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1738,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1755,7 +1760,7 @@
         <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1772,7 +1777,7 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1789,7 +1794,7 @@
         <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1806,7 +1811,7 @@
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1823,7 +1828,7 @@
         <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1834,13 +1839,13 @@
         <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
         <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1851,13 +1856,13 @@
         <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1874,7 +1879,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1891,7 +1896,7 @@
         <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1908,7 +1913,7 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,7 +1930,7 @@
         <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1942,7 +1947,7 @@
         <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1959,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1976,7 +1981,7 @@
         <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,7 +1998,7 @@
         <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2010,7 +2015,7 @@
         <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2027,7 +2032,7 @@
         <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2044,7 +2049,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2061,7 +2066,7 @@
         <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2078,7 +2083,7 @@
         <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2095,7 +2100,7 @@
         <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2112,7 +2117,7 @@
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2129,7 +2134,7 @@
         <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2146,7 +2151,7 @@
         <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2163,7 +2168,7 @@
         <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,7 +2185,7 @@
         <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,7 +2202,7 @@
         <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,7 +2219,7 @@
         <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2231,7 +2236,7 @@
         <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2248,7 +2253,7 @@
         <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2259,13 +2264,13 @@
         <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
         <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2276,13 +2281,13 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
         <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2293,13 +2298,13 @@
         <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2310,13 +2315,13 @@
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2327,13 +2332,13 @@
         <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2341,16 +2346,16 @@
         <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
         <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2361,13 +2366,13 @@
         <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
         <v>82</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2378,13 +2383,13 @@
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s">
         <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2395,13 +2400,13 @@
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
         <v>82</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2412,13 +2417,13 @@
         <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2429,13 +2434,13 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2446,13 +2451,13 @@
         <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
         <v>86</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2463,13 +2468,13 @@
         <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
         <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2480,13 +2485,13 @@
         <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2497,13 +2502,13 @@
         <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
         <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2514,13 +2519,13 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
         <v>70</v>
       </c>
       <c r="E77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2531,13 +2536,13 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D78" t="s">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2548,13 +2553,13 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D79" t="s">
         <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2565,13 +2570,13 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
         <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2582,13 +2587,13 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D81" t="s">
         <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2596,16 +2601,16 @@
         <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
         <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2616,13 +2621,13 @@
         <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
         <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2633,13 +2638,13 @@
         <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
         <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2650,13 +2655,13 @@
         <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D85" t="s">
         <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2667,13 +2672,13 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D86" t="s">
         <v>74</v>
       </c>
       <c r="E86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2684,30 +2689,30 @@
         <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
         <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2724,7 +2729,7 @@
         <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2741,7 +2746,7 @@
         <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2758,7 +2763,7 @@
         <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2775,7 +2780,7 @@
         <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,7 +2797,7 @@
         <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2809,7 +2814,7 @@
         <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,7 +2831,7 @@
         <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2843,7 +2848,7 @@
         <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2860,7 +2865,7 @@
         <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2877,7 +2882,7 @@
         <v>86</v>
       </c>
       <c r="E98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,7 +2899,7 @@
         <v>86</v>
       </c>
       <c r="E99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2911,7 +2916,7 @@
         <v>86</v>
       </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2928,7 +2933,7 @@
         <v>77</v>
       </c>
       <c r="E101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2945,7 +2950,7 @@
         <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2962,7 +2967,7 @@
         <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2973,13 +2978,13 @@
         <v>128</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" t="s">
         <v>86</v>
       </c>
       <c r="E104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2990,13 +2995,13 @@
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D105" t="s">
         <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3007,13 +3012,13 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
         <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3024,13 +3029,13 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D107" t="s">
         <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3041,13 +3046,13 @@
         <v>130</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108" t="s">
         <v>86</v>
       </c>
       <c r="E108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3058,13 +3063,13 @@
         <v>78</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3075,13 +3080,13 @@
         <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
         <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3092,13 +3097,13 @@
         <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D111" t="s">
         <v>86</v>
       </c>
       <c r="E111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3109,13 +3114,13 @@
         <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D112" t="s">
         <v>86</v>
       </c>
       <c r="E112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3126,13 +3131,13 @@
         <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D113" t="s">
         <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3143,13 +3148,13 @@
         <v>73</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D114" t="s">
         <v>74</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3160,13 +3165,13 @@
         <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D115" t="s">
         <v>74</v>
       </c>
       <c r="E115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3183,7 +3188,7 @@
         <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3200,7 +3205,7 @@
         <v>70</v>
       </c>
       <c r="E117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3217,7 +3222,7 @@
         <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3234,7 +3239,7 @@
         <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3251,7 +3256,7 @@
         <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3268,7 +3273,7 @@
         <v>74</v>
       </c>
       <c r="E121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3285,7 +3290,7 @@
         <v>93</v>
       </c>
       <c r="E122" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3302,7 +3307,7 @@
         <v>74</v>
       </c>
       <c r="E123" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3313,13 +3318,13 @@
         <v>79</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D124" t="s">
         <v>74</v>
       </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3330,13 +3335,13 @@
         <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D125" t="s">
         <v>86</v>
       </c>
       <c r="E125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3347,13 +3352,13 @@
         <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D126" t="s">
         <v>74</v>
       </c>
       <c r="E126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3364,13 +3369,13 @@
         <v>83</v>
       </c>
       <c r="C127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D127" t="s">
         <v>74</v>
       </c>
       <c r="E127" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3381,13 +3386,13 @@
         <v>98</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D128" t="s">
         <v>86</v>
       </c>
       <c r="E128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3404,7 +3409,7 @@
         <v>74</v>
       </c>
       <c r="E129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3421,7 +3426,7 @@
         <v>86</v>
       </c>
       <c r="E130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3438,7 +3443,7 @@
         <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3455,7 +3460,7 @@
         <v>86</v>
       </c>
       <c r="E132" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3472,7 +3477,7 @@
         <v>86</v>
       </c>
       <c r="E133" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3489,7 +3494,7 @@
         <v>70</v>
       </c>
       <c r="E134" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3500,13 +3505,13 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D135" t="s">
         <v>86</v>
       </c>
       <c r="E135" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="252">
   <si>
     <t>cook</t>
   </si>
@@ -874,6 +874,14 @@
   </si>
   <si>
     <t>military battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2785,7 +2793,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s">
         <v>65</v>
@@ -2802,7 +2810,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
         <v>66</v>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="259">
   <si>
     <t>cook</t>
   </si>
@@ -882,6 +882,34 @@
   </si>
   <si>
     <t>street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平緩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1663,7 +1691,7 @@
         <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="E26" t="s">
         <v>218</v>
@@ -1816,10 +1844,10 @@
         <v>10067</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2054,10 +2082,10 @@
         <v>345</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2504,7 +2532,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
@@ -2513,7 +2541,7 @@
         <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="E76" t="s">
         <v>215</v>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="266">
   <si>
     <t>cook</t>
   </si>
@@ -263,9 +263,6 @@
     <t>cow</t>
   </si>
   <si>
-    <t>dophin</t>
-  </si>
-  <si>
     <t>donkey</t>
   </si>
   <si>
@@ -910,6 +907,38 @@
   </si>
   <si>
     <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間高，兩邊低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間低，兩邊高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平緩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dolphin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1260,16 +1289,16 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1286,7 +1315,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,7 +1332,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1317,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,7 +1366,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,10 +1380,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,7 +1400,7 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1379,16 +1408,16 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,7 +1434,7 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1419,10 +1448,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,7 +1468,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1453,10 +1482,10 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1470,10 +1499,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1487,10 +1516,10 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1521,10 +1550,10 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,7 +1570,7 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,10 +1584,10 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,27 +1601,27 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20">
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1606,10 +1635,10 @@
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1623,10 +1652,10 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1640,78 +1669,78 @@
         <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" t="s">
         <v>246</v>
       </c>
-      <c r="B27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>247</v>
-      </c>
-      <c r="E27" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1722,13 +1751,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1742,10 +1771,10 @@
         <v>8021</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1762,7 +1791,7 @@
         <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1776,10 +1805,10 @@
         <v>8559</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1793,10 +1822,10 @@
         <v>8889</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1813,7 +1842,7 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1827,78 +1856,78 @@
         <v>9926</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35">
         <v>10067</v>
       </c>
       <c r="D35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" t="s">
         <v>255</v>
-      </c>
-      <c r="E35" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36">
         <v>13512</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
         <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1915,7 +1944,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1929,10 +1958,10 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1946,18 +1975,18 @@
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
         <v>146</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
       </c>
       <c r="C42">
         <v>108</v>
@@ -1966,15 +1995,15 @@
         <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43">
         <v>124</v>
@@ -1983,15 +2012,15 @@
         <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44">
         <v>124</v>
@@ -2000,7 +2029,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2017,7 +2046,7 @@
         <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2034,7 +2063,7 @@
         <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2048,10 +2077,10 @@
         <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2065,35 +2094,35 @@
         <v>300</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49">
         <v>345</v>
       </c>
       <c r="D49" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" t="s">
         <v>253</v>
-      </c>
-      <c r="E49" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50">
         <v>415</v>
@@ -2102,7 +2131,7 @@
         <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2119,15 +2148,15 @@
         <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52">
         <v>560</v>
@@ -2136,7 +2165,7 @@
         <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2153,7 +2182,7 @@
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2170,15 +2199,15 @@
         <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55">
         <v>662</v>
@@ -2187,7 +2216,7 @@
         <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2204,7 +2233,7 @@
         <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2218,10 +2247,10 @@
         <v>809</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2238,7 +2267,7 @@
         <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2255,160 +2284,160 @@
         <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60">
         <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61">
         <v>958</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
         <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
         <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2416,16 +2445,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2433,16 +2462,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" t="s">
         <v>81</v>
       </c>
-      <c r="C70" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" t="s">
-        <v>82</v>
-      </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2450,16 +2479,16 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2470,98 +2499,98 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
         <v>70</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2569,16 +2598,16 @@
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2586,16 +2615,16 @@
         <v>68</v>
       </c>
       <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" t="s">
         <v>85</v>
       </c>
-      <c r="C79" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
       <c r="E79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2606,98 +2635,98 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
         <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D82" t="s">
         <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
         <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
         <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D85" t="s">
         <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2705,50 +2734,50 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
         <v>74</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2765,7 +2794,7 @@
         <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2782,15 +2811,15 @@
         <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C91">
         <v>1147</v>
@@ -2799,7 +2828,7 @@
         <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2816,12 +2845,12 @@
         <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
         <v>65</v>
@@ -2833,12 +2862,12 @@
         <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B94" t="s">
         <v>66</v>
@@ -2850,7 +2879,7 @@
         <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2864,10 +2893,10 @@
         <v>1266</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2884,7 +2913,7 @@
         <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2892,7 +2921,7 @@
         <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97">
         <v>1351</v>
@@ -2901,7 +2930,7 @@
         <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2915,10 +2944,10 @@
         <v>1351</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2932,27 +2961,27 @@
         <v>1582</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100">
         <v>1604</v>
       </c>
       <c r="D100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2969,7 +2998,7 @@
         <v>77</v>
       </c>
       <c r="E101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2986,7 +3015,7 @@
         <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3003,24 +3032,24 @@
         <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3031,64 +3060,64 @@
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D105" t="s">
         <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
         <v>114</v>
       </c>
-      <c r="B106" t="s">
-        <v>115</v>
-      </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D106" t="s">
         <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D107" t="s">
         <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3099,13 +3128,13 @@
         <v>78</v>
       </c>
       <c r="C109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3116,64 +3145,64 @@
         <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
         <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D113" t="s">
         <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3184,30 +3213,30 @@
         <v>73</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
         <v>74</v>
       </c>
       <c r="E114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D115" t="s">
         <v>74</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3224,7 +3253,7 @@
         <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3232,7 +3261,7 @@
         <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117">
         <v>2202</v>
@@ -3241,7 +3270,7 @@
         <v>70</v>
       </c>
       <c r="E117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,7 +3287,7 @@
         <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3275,15 +3304,15 @@
         <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120">
         <v>3284</v>
@@ -3292,15 +3321,15 @@
         <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" t="s">
         <v>96</v>
-      </c>
-      <c r="B121" t="s">
-        <v>97</v>
       </c>
       <c r="C121">
         <v>3510</v>
@@ -3309,7 +3338,7 @@
         <v>74</v>
       </c>
       <c r="E121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3323,10 +3352,10 @@
         <v>3871</v>
       </c>
       <c r="D122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E122" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3343,7 +3372,7 @@
         <v>74</v>
       </c>
       <c r="E123" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3351,50 +3380,50 @@
         <v>68</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="C124" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="E124" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" t="s">
         <v>74</v>
       </c>
       <c r="E126" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3402,33 +3431,33 @@
         <v>68</v>
       </c>
       <c r="B127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D127" t="s">
         <v>74</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E128" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3445,7 +3474,7 @@
         <v>74</v>
       </c>
       <c r="E129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3459,10 +3488,10 @@
         <v>5273</v>
       </c>
       <c r="D130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3479,7 +3508,7 @@
         <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3493,10 +3522,10 @@
         <v>6110</v>
       </c>
       <c r="D132" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="E132" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,10 +3539,10 @@
         <v>6316</v>
       </c>
       <c r="D133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E133" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,33 +3550,33 @@
         <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C134">
         <v>6481</v>
       </c>
       <c r="D134" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="E134" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D135" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3587,17 +3616,17 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="269">
   <si>
     <t>cook</t>
   </si>
@@ -47,9 +47,6 @@
     <t>tableware</t>
   </si>
   <si>
-    <t>washing-tableware</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -790,10 +787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000~4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2000~4000、4000~7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -939,6 +932,26 @@
   </si>
   <si>
     <t>dolphin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間高，兩邊低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash_dishes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1286,36 +1299,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,163 +1342,163 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1499,163 +1512,163 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
       </c>
       <c r="C18">
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C20">
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1663,424 +1676,424 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="C23">
         <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" t="s">
         <v>245</v>
-      </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>8021</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>8303</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>8559</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>8889</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>9234</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>9926</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35">
         <v>10067</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>13512</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
         <v>145</v>
-      </c>
-      <c r="B42" t="s">
-        <v>146</v>
       </c>
       <c r="C42">
         <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43">
         <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2094,78 +2107,78 @@
         <v>300</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49">
         <v>345</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50">
         <v>415</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>474</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52">
         <v>560</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2179,724 +2192,724 @@
         <v>650</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>662</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55">
         <v>662</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56">
         <v>807</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>809</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58">
         <v>813</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
         <v>43</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
       </c>
       <c r="C59">
         <v>813</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60">
         <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61">
         <v>958</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" t="s">
         <v>80</v>
       </c>
-      <c r="C70" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" t="s">
-        <v>81</v>
-      </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" t="s">
         <v>84</v>
       </c>
-      <c r="C79" t="s">
-        <v>197</v>
-      </c>
-      <c r="D79" t="s">
-        <v>85</v>
-      </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89">
         <v>1000</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>1104</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91">
         <v>1147</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" t="s">
         <v>68</v>
-      </c>
-      <c r="B92" t="s">
-        <v>69</v>
       </c>
       <c r="C92">
         <v>1168</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C93">
         <v>1206</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C94">
         <v>1227</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <v>1266</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2910,554 +2923,554 @@
         <v>1330</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97">
         <v>1351</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C98">
         <v>1351</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>1582</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100">
         <v>1604</v>
       </c>
       <c r="D100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101">
         <v>1664</v>
       </c>
       <c r="D101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102">
         <v>1752</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C103">
         <v>1900</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="B106" t="s">
-        <v>114</v>
-      </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" t="s">
+        <v>189</v>
+      </c>
+      <c r="D110" t="s">
         <v>76</v>
       </c>
-      <c r="C110" t="s">
-        <v>190</v>
-      </c>
-      <c r="D110" t="s">
-        <v>77</v>
-      </c>
       <c r="E110" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" t="s">
         <v>73</v>
       </c>
-      <c r="C114" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" t="s">
-        <v>74</v>
-      </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D115" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
         <v>8</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
       </c>
       <c r="C116">
         <v>2078</v>
       </c>
       <c r="D116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117">
         <v>2202</v>
       </c>
       <c r="D117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B118" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C118">
         <v>2659</v>
       </c>
       <c r="D118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C119">
         <v>3240</v>
       </c>
       <c r="D119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120">
         <v>3284</v>
       </c>
       <c r="D120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" t="s">
         <v>95</v>
-      </c>
-      <c r="B121" t="s">
-        <v>96</v>
       </c>
       <c r="C121">
         <v>3510</v>
       </c>
       <c r="D121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C122">
         <v>3871</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123">
         <v>3984</v>
       </c>
       <c r="D123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B124" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E125" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C128" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E128" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3471,117 +3484,117 @@
         <v>4000</v>
       </c>
       <c r="D129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C130">
         <v>5273</v>
       </c>
       <c r="D130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C131">
         <v>5943</v>
       </c>
       <c r="D131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" t="s">
         <v>62</v>
-      </c>
-      <c r="B132" t="s">
-        <v>63</v>
       </c>
       <c r="C132">
         <v>6110</v>
       </c>
       <c r="D132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C133">
         <v>6316</v>
       </c>
       <c r="D133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C134">
         <v>6481</v>
       </c>
       <c r="D134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D135" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E135" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3591,42 +3604,42 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="271">
   <si>
     <t>cook</t>
   </si>
@@ -176,9 +176,6 @@
     <t>fire</t>
   </si>
   <si>
-    <t>flogs</t>
-  </si>
-  <si>
     <t>heavy_rain</t>
   </si>
   <si>
@@ -952,6 +949,18 @@
   </si>
   <si>
     <t>wash_dishes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1302,16 +1311,16 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1319,16 +1328,16 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1342,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1359,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1376,10 +1385,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1393,10 +1402,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1410,10 +1419,10 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1421,16 +1430,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1444,10 +1453,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1461,10 +1470,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1472,16 +1481,16 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1495,10 +1504,10 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1512,27 +1521,27 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1540,16 +1549,16 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1563,10 +1572,10 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1580,10 +1589,10 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1597,10 +1606,10 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1614,27 +1623,27 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20">
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1648,10 +1657,10 @@
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1665,10 +1674,10 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1676,84 +1685,84 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23">
         <v>94</v>
       </c>
       <c r="D23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" t="s">
         <v>266</v>
-      </c>
-      <c r="E23" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
         <v>243</v>
       </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>244</v>
-      </c>
-      <c r="E27" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1764,13 +1773,13 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1784,10 +1793,10 @@
         <v>8021</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1801,10 +1810,10 @@
         <v>8303</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1818,10 +1827,10 @@
         <v>8559</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1835,10 +1844,10 @@
         <v>8889</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1852,10 +1861,10 @@
         <v>9234</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1869,78 +1878,78 @@
         <v>9926</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35">
         <v>10067</v>
       </c>
       <c r="D35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" t="s">
         <v>252</v>
-      </c>
-      <c r="E35" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36">
         <v>13512</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,16 +1957,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1965,16 +1974,16 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1982,67 +1991,67 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
         <v>144</v>
-      </c>
-      <c r="B42" t="s">
-        <v>145</v>
       </c>
       <c r="C42">
         <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43">
         <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44">
         <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2056,10 +2065,10 @@
         <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,10 +2082,10 @@
         <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2090,10 +2099,10 @@
         <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2107,44 +2116,44 @@
         <v>300</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <v>345</v>
       </c>
       <c r="D49" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" t="s">
         <v>250</v>
-      </c>
-      <c r="E49" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50">
         <v>415</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2152,33 +2161,33 @@
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>474</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52">
         <v>560</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2192,10 +2201,10 @@
         <v>650</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2209,27 +2218,27 @@
         <v>662</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55">
         <v>662</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2237,33 +2246,33 @@
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>807</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>809</v>
       </c>
       <c r="D57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,10 +2286,10 @@
         <v>813</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2294,350 +2303,350 @@
         <v>813</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60">
         <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61">
         <v>958</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" t="s">
         <v>79</v>
       </c>
-      <c r="C70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
-      </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" t="s">
         <v>83</v>
       </c>
-      <c r="C79" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79" t="s">
-        <v>84</v>
-      </c>
       <c r="E79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2648,149 +2657,149 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2804,10 +2813,10 @@
         <v>1000</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2821,78 +2830,78 @@
         <v>1104</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C91">
         <v>1147</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" t="s">
         <v>67</v>
-      </c>
-      <c r="B92" t="s">
-        <v>68</v>
       </c>
       <c r="C92">
         <v>1168</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C93">
         <v>1206</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C94">
         <v>1227</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2906,10 +2915,10 @@
         <v>1266</v>
       </c>
       <c r="D95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2923,27 +2932,27 @@
         <v>1330</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97">
         <v>1351</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2951,16 +2960,16 @@
         <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C98">
         <v>1351</v>
       </c>
       <c r="D98" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2974,27 +2983,27 @@
         <v>1582</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100">
         <v>1604</v>
       </c>
       <c r="D100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3008,10 +3017,10 @@
         <v>1664</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3025,44 +3034,44 @@
         <v>1752</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C103">
         <v>1900</v>
       </c>
       <c r="D103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" t="s">
         <v>264</v>
-      </c>
-      <c r="E103" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3073,183 +3082,183 @@
         <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
         <v>112</v>
       </c>
-      <c r="B106" t="s">
-        <v>113</v>
-      </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" t="s">
         <v>75</v>
       </c>
-      <c r="C110" t="s">
-        <v>189</v>
-      </c>
-      <c r="D110" t="s">
-        <v>76</v>
-      </c>
       <c r="E110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" t="s">
         <v>72</v>
       </c>
-      <c r="C114" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" t="s">
-        <v>73</v>
-      </c>
       <c r="E114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3263,44 +3272,44 @@
         <v>2078</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C117">
         <v>2202</v>
       </c>
       <c r="D117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C118">
         <v>2659</v>
       </c>
       <c r="D118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3308,50 +3317,50 @@
         <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="C119">
         <v>3240</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120">
         <v>3284</v>
       </c>
       <c r="D120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" t="s">
         <v>94</v>
-      </c>
-      <c r="B121" t="s">
-        <v>95</v>
       </c>
       <c r="C121">
         <v>3510</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3365,10 +3374,10 @@
         <v>3871</v>
       </c>
       <c r="D122" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3382,95 +3391,95 @@
         <v>3984</v>
       </c>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3484,10 +3493,10 @@
         <v>4000</v>
       </c>
       <c r="D129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3495,16 +3504,16 @@
         <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C130">
         <v>5273</v>
       </c>
       <c r="D130" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="E130" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3518,27 +3527,27 @@
         <v>5943</v>
       </c>
       <c r="D131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" t="s">
         <v>61</v>
-      </c>
-      <c r="B132" t="s">
-        <v>62</v>
       </c>
       <c r="C132">
         <v>6110</v>
       </c>
       <c r="D132" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" t="s">
         <v>256</v>
-      </c>
-      <c r="E132" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3552,49 +3561,49 @@
         <v>6316</v>
       </c>
       <c r="D133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C134">
         <v>6481</v>
       </c>
       <c r="D134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D135" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E135" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3624,22 +3633,22 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/sound/聲音分類.xlsx
+++ b/sound/聲音分類.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="281">
   <si>
     <t>cook</t>
   </si>
@@ -808,31 +808,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100~1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~1000、1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~1000、1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~1000、1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;100、100~1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;100、100~1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>military battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&gt;7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>平緩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間高，兩邊低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100~1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100~1000、1000~2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~1000、1000~2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~1000、1000~2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;100、100~1000</t>
+    <t>中間低，兩邊高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平緩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dolphin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間高，兩邊低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,11 +940,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軍事</t>
+    <t>&lt;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash_dishes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高頻高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -856,19 +964,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;100、100~1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>military battle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>street</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>street</t>
+    <t>&lt;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間低，兩邊高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間低，兩邊高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -876,19 +992,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低頻高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高頻高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;7000</t>
+    <t>&lt;100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -896,71 +1000,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高頻高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000~7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中間高，兩邊低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中間低，兩邊高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000~7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平緩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dolphin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中間高，兩邊低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000~2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低頻高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wash_dishes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高頻高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000~7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frogs</t>
+    <t>日常生活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1385,10 +1425,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1504,10 +1544,10 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1538,7 +1578,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
         <v>201</v>
@@ -1572,15 +1612,15 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -1634,7 +1674,7 @@
         <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20">
         <v>46</v>
@@ -1685,16 +1725,16 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23">
         <v>94</v>
       </c>
       <c r="D23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" t="s">
         <v>265</v>
-      </c>
-      <c r="E23" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1742,7 +1782,7 @@
         <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
         <v>215</v>
@@ -1750,7 +1790,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
         <v>124</v>
@@ -1759,10 +1799,10 @@
         <v>161</v>
       </c>
       <c r="D27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" t="s">
         <v>243</v>
-      </c>
-      <c r="E27" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1779,7 +1819,7 @@
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1861,7 +1901,7 @@
         <v>9234</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="E33" t="s">
         <v>206</v>
@@ -1895,10 +1935,10 @@
         <v>10067</v>
       </c>
       <c r="D35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" t="s">
         <v>251</v>
-      </c>
-      <c r="E35" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1932,7 +1972,7 @@
         <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2133,10 +2173,10 @@
         <v>345</v>
       </c>
       <c r="D49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" t="s">
         <v>249</v>
-      </c>
-      <c r="E49" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2269,7 +2309,7 @@
         <v>809</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E57" t="s">
         <v>202</v>
@@ -2289,7 +2329,7 @@
         <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2473,7 +2513,7 @@
         <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" t="s">
         <v>202</v>
@@ -2583,7 +2623,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -2592,7 +2632,7 @@
         <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E76" t="s">
         <v>212</v>
@@ -2646,7 +2686,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2680,7 +2720,7 @@
         <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2697,7 +2737,7 @@
         <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2714,7 +2754,7 @@
         <v>72</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2731,7 +2771,7 @@
         <v>72</v>
       </c>
       <c r="E84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2748,7 +2788,7 @@
         <v>72</v>
       </c>
       <c r="E85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2765,7 +2805,7 @@
         <v>72</v>
       </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2782,12 +2822,12 @@
         <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
         <v>81</v>
@@ -2872,7 +2912,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
         <v>63</v>
@@ -2889,7 +2929,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
         <v>64</v>
@@ -2966,7 +3006,7 @@
         <v>1351</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
         <v>203</v>
@@ -3017,10 +3057,10 @@
         <v>1664</v>
       </c>
       <c r="D101" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="E101" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3051,10 +3091,10 @@
         <v>1900</v>
       </c>
       <c r="D103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E103" t="s">
         <v>263</v>
-      </c>
-      <c r="E103" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3156,7 +3196,7 @@
         <v>147</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3317,7 +3357,7 @@
         <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C119">
         <v>3240</v>
@@ -3402,13 +3442,13 @@
         <v>66</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C124" t="s">
         <v>190</v>
       </c>
       <c r="D124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E124" t="s">
         <v>204</v>
@@ -3510,10 +3550,10 @@
         <v>5273</v>
       </c>
       <c r="D130" t="s">
+        <v>267</v>
+      </c>
+      <c r="E130" t="s">
         <v>268</v>
-      </c>
-      <c r="E130" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,10 +3567,10 @@
         <v>5943</v>
       </c>
       <c r="D131" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="E131" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3544,10 +3584,10 @@
         <v>6110</v>
       </c>
       <c r="D132" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" t="s">
         <v>255</v>
-      </c>
-      <c r="E132" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3578,10 +3618,10 @@
         <v>6481</v>
       </c>
       <c r="D134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E134" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
